--- a/MT4-DDE-Integration.xlsx
+++ b/MT4-DDE-Integration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Gulickson\GitHub\FX-Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Gulickson\GitHub\FX-Other-Integrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1586,97 +1586,19 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="_xlbgnm.AUS200" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ESP35" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.FRA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.GER30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.HKG33" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ITA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.JPN225" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.NAS100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SPX500" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SUI30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SWE30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.UK100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.US30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
+      <ddeItem name="_xlbgnm.AUS200" advise="1"/>
+      <ddeItem name="_xlbgnm.ESP35" advise="1"/>
+      <ddeItem name="_xlbgnm.FRA40" advise="1"/>
+      <ddeItem name="_xlbgnm.GER30" advise="1"/>
+      <ddeItem name="_xlbgnm.HKG33" advise="1"/>
+      <ddeItem name="_xlbgnm.ITA40" advise="1"/>
+      <ddeItem name="_xlbgnm.JPN225" advise="1"/>
+      <ddeItem name="_xlbgnm.NAS100" advise="1"/>
+      <ddeItem name="_xlbgnm.SPX500" advise="1"/>
+      <ddeItem name="_xlbgnm.SUI30" advise="1"/>
+      <ddeItem name="_xlbgnm.SWE30" advise="1"/>
+      <ddeItem name="_xlbgnm.UK100" advise="1"/>
+      <ddeItem name="_xlbgnm.US30" advise="1"/>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -2107,97 +2029,19 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="_xlbgnm.AUS200" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ESP35" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.FRA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.GER30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.HKG33" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ITA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.JPN225" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.NAS100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SPX500" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SUI30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SWE30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.UK100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.US30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
+      <ddeItem name="_xlbgnm.AUS200" advise="1"/>
+      <ddeItem name="_xlbgnm.ESP35" advise="1"/>
+      <ddeItem name="_xlbgnm.FRA40" advise="1"/>
+      <ddeItem name="_xlbgnm.GER30" advise="1"/>
+      <ddeItem name="_xlbgnm.HKG33" advise="1"/>
+      <ddeItem name="_xlbgnm.ITA40" advise="1"/>
+      <ddeItem name="_xlbgnm.JPN225" advise="1"/>
+      <ddeItem name="_xlbgnm.NAS100" advise="1"/>
+      <ddeItem name="_xlbgnm.SPX500" advise="1"/>
+      <ddeItem name="_xlbgnm.SUI30" advise="1"/>
+      <ddeItem name="_xlbgnm.SWE30" advise="1"/>
+      <ddeItem name="_xlbgnm.UK100" advise="1"/>
+      <ddeItem name="_xlbgnm.US30" advise="1"/>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -2628,97 +2472,19 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="_xlbgnm.AUS200" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ESP35" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.FRA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.GER30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.HKG33" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ITA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.JPN225" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.NAS100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SPX500" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SUI30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SWE30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.UK100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.US30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
+      <ddeItem name="_xlbgnm.AUS200" advise="1"/>
+      <ddeItem name="_xlbgnm.ESP35" advise="1"/>
+      <ddeItem name="_xlbgnm.FRA40" advise="1"/>
+      <ddeItem name="_xlbgnm.GER30" advise="1"/>
+      <ddeItem name="_xlbgnm.HKG33" advise="1"/>
+      <ddeItem name="_xlbgnm.ITA40" advise="1"/>
+      <ddeItem name="_xlbgnm.JPN225" advise="1"/>
+      <ddeItem name="_xlbgnm.NAS100" advise="1"/>
+      <ddeItem name="_xlbgnm.SPX500" advise="1"/>
+      <ddeItem name="_xlbgnm.SUI30" advise="1"/>
+      <ddeItem name="_xlbgnm.SWE30" advise="1"/>
+      <ddeItem name="_xlbgnm.UK100" advise="1"/>
+      <ddeItem name="_xlbgnm.US30" advise="1"/>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -3149,97 +2915,19 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="_xlbgnm.AUS200" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ESP35" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.FRA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.GER30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.HKG33" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ITA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.JPN225" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.NAS100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SPX500" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SUI30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SWE30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.UK100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.US30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
+      <ddeItem name="_xlbgnm.AUS200" advise="1"/>
+      <ddeItem name="_xlbgnm.ESP35" advise="1"/>
+      <ddeItem name="_xlbgnm.FRA40" advise="1"/>
+      <ddeItem name="_xlbgnm.GER30" advise="1"/>
+      <ddeItem name="_xlbgnm.HKG33" advise="1"/>
+      <ddeItem name="_xlbgnm.ITA40" advise="1"/>
+      <ddeItem name="_xlbgnm.JPN225" advise="1"/>
+      <ddeItem name="_xlbgnm.NAS100" advise="1"/>
+      <ddeItem name="_xlbgnm.SPX500" advise="1"/>
+      <ddeItem name="_xlbgnm.SUI30" advise="1"/>
+      <ddeItem name="_xlbgnm.SWE30" advise="1"/>
+      <ddeItem name="_xlbgnm.UK100" advise="1"/>
+      <ddeItem name="_xlbgnm.US30" advise="1"/>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -3670,97 +3358,19 @@
           </value>
         </values>
       </ddeItem>
-      <ddeItem name="_xlbgnm.AUS200" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ESP35" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.FRA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.GER30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.HKG33" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.ITA40" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.JPN225" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.NAS100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SPX500" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SUI30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.SWE30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.UK100" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
-      <ddeItem name="_xlbgnm.US30" advise="1">
-        <values>
-          <value t="str">
-            <val>N\A</val>
-          </value>
-        </values>
-      </ddeItem>
+      <ddeItem name="_xlbgnm.AUS200" advise="1"/>
+      <ddeItem name="_xlbgnm.ESP35" advise="1"/>
+      <ddeItem name="_xlbgnm.FRA40" advise="1"/>
+      <ddeItem name="_xlbgnm.GER30" advise="1"/>
+      <ddeItem name="_xlbgnm.HKG33" advise="1"/>
+      <ddeItem name="_xlbgnm.ITA40" advise="1"/>
+      <ddeItem name="_xlbgnm.JPN225" advise="1"/>
+      <ddeItem name="_xlbgnm.NAS100" advise="1"/>
+      <ddeItem name="_xlbgnm.SPX500" advise="1"/>
+      <ddeItem name="_xlbgnm.SUI30" advise="1"/>
+      <ddeItem name="_xlbgnm.SWE30" advise="1"/>
+      <ddeItem name="_xlbgnm.UK100" advise="1"/>
+      <ddeItem name="_xlbgnm.US30" advise="1"/>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -4234,7 +3844,7 @@
       </c>
       <c r="P8" s="64">
         <f t="shared" ref="P8:P39" ca="1" si="2">IF($B$3&lt;0,(NOW()+TIME(-1*$B$3,0,0))-O8,(NOW()-TIME((ABS(-1*$B$3)),0,0))-$O8)</f>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R8" s="22">
         <v>-12</v>
@@ -4291,7 +3901,7 @@
       </c>
       <c r="P9" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R9" s="22">
         <v>-11</v>
@@ -4348,7 +3958,7 @@
       </c>
       <c r="P10" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R10" s="22">
         <v>-10</v>
@@ -4405,7 +4015,7 @@
       </c>
       <c r="P11" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R11" s="22">
         <v>-9</v>
@@ -4461,7 +4071,7 @@
       </c>
       <c r="P12" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R12" s="22">
         <v>-8</v>
@@ -4515,7 +4125,7 @@
       </c>
       <c r="P13" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R13" s="22">
         <v>-7</v>
@@ -4569,7 +4179,7 @@
       </c>
       <c r="P14" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R14" s="22">
         <v>-6</v>
@@ -4623,7 +4233,7 @@
       </c>
       <c r="P15" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R15" s="22">
         <v>-5</v>
@@ -4785,7 +4395,7 @@
       </c>
       <c r="P18" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R18" s="22">
         <v>-2</v>
@@ -4839,7 +4449,7 @@
       </c>
       <c r="P19" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R19" s="22">
         <v>-1</v>
@@ -4892,7 +4502,7 @@
       </c>
       <c r="P20" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R20" s="22">
         <v>0</v>
@@ -4946,7 +4556,7 @@
       </c>
       <c r="P21" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R21" s="22">
         <v>1</v>
@@ -5000,7 +4610,7 @@
       </c>
       <c r="P22" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R22" s="22">
         <v>2</v>
@@ -5053,7 +4663,7 @@
       </c>
       <c r="P23" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R23" s="22">
         <v>3</v>
@@ -5107,7 +4717,7 @@
       </c>
       <c r="P24" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R24" s="22">
         <v>4</v>
@@ -5161,7 +4771,7 @@
       </c>
       <c r="P25" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R25" s="22">
         <v>5</v>
@@ -5215,7 +4825,7 @@
       </c>
       <c r="P26" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R26" s="22">
         <v>6</v>
@@ -5269,7 +4879,7 @@
       </c>
       <c r="P27" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R27" s="22">
         <v>7</v>
@@ -5323,7 +4933,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R28" s="22">
         <v>8</v>
@@ -5377,7 +4987,7 @@
       </c>
       <c r="P29" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R29" s="22">
         <v>9</v>
@@ -5430,7 +5040,7 @@
       </c>
       <c r="P30" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R30" s="22">
         <v>10</v>
@@ -5484,7 +5094,7 @@
       </c>
       <c r="P31" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R31" s="22">
         <v>11</v>
@@ -5538,7 +5148,7 @@
       </c>
       <c r="P32" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
       <c r="R32" s="22">
         <v>12</v>
@@ -5592,7 +5202,7 @@
       </c>
       <c r="P33" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
@@ -5643,7 +5253,7 @@
       </c>
       <c r="P34" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
@@ -5694,7 +5304,7 @@
       </c>
       <c r="P35" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
@@ -5795,7 +5405,7 @@
       </c>
       <c r="P37" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
@@ -5846,7 +5456,7 @@
       </c>
       <c r="P38" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
@@ -5948,7 +5558,7 @@
       </c>
       <c r="P40" s="45">
         <f t="shared" ref="P40:P62" ca="1" si="5">IF($B$3&lt;0,(NOW()+TIME(-1*$B$3,0,0))-O40,(NOW()-TIME((ABS(-1*$B$3)),0,0))-$O40)</f>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
@@ -5999,7 +5609,7 @@
       </c>
       <c r="P41" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
@@ -6050,7 +5660,7 @@
       </c>
       <c r="P42" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
@@ -6100,7 +5710,7 @@
       </c>
       <c r="P43" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
@@ -6202,7 +5812,7 @@
       </c>
       <c r="P45" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
@@ -6253,7 +5863,7 @@
       </c>
       <c r="P46" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
@@ -6303,7 +5913,7 @@
       </c>
       <c r="P47" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
@@ -6353,7 +5963,7 @@
       </c>
       <c r="P48" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
@@ -6404,7 +6014,7 @@
       </c>
       <c r="P49" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
@@ -6455,7 +6065,7 @@
       </c>
       <c r="P50" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
@@ -6506,7 +6116,7 @@
       </c>
       <c r="P51" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
@@ -6557,7 +6167,7 @@
       </c>
       <c r="P52" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
@@ -6607,7 +6217,7 @@
       </c>
       <c r="P53" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
@@ -6658,7 +6268,7 @@
       </c>
       <c r="P54" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
@@ -6709,7 +6319,7 @@
       </c>
       <c r="P55" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
@@ -6760,7 +6370,7 @@
       </c>
       <c r="P56" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
@@ -6862,7 +6472,7 @@
       </c>
       <c r="P58" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
@@ -6913,7 +6523,7 @@
       </c>
       <c r="P59" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
@@ -6964,7 +6574,7 @@
       </c>
       <c r="P60" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
@@ -7015,7 +6625,7 @@
       </c>
       <c r="P61" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7066,7 +6676,7 @@
       </c>
       <c r="P62" s="47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58517222222144483</v>
+        <v>0.60022395833220799</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">
